--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacqui.Muller\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB8EEF-425E-42A8-A7F1-FF25847C778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BEBB57-8848-4145-9A31-ECB0105F98F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -1161,16 +1161,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,16 +1178,16 @@
         <v>58</v>
       </c>
       <c r="B3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,16 +1195,16 @@
         <v>59</v>
       </c>
       <c r="B4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,16 +1212,16 @@
         <v>60</v>
       </c>
       <c r="B5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,16 +1229,16 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,16 +1246,16 @@
         <v>62</v>
       </c>
       <c r="B7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,16 +1263,16 @@
         <v>63</v>
       </c>
       <c r="B8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,16 +1280,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,16 +1297,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BEBB57-8848-4145-9A31-ECB0105F98F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A18E585-B4B5-4A73-997E-782754949ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,16 +1314,16 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,16 +1331,16 @@
         <v>67</v>
       </c>
       <c r="B12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,16 +1348,16 @@
         <v>68</v>
       </c>
       <c r="B13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,16 +1365,16 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,16 +1382,16 @@
         <v>70</v>
       </c>
       <c r="B15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A18E585-B4B5-4A73-997E-782754949ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF211BE-C376-4AAF-9847-340B9C32BB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NWU\CMPG323\Project4\CMPG-323-Project-4-34875255\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9834A2-5506-4468-AEAD-D2E9551255A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D4B464-A7A8-454F-961F-D3A5D507F45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30975" yWindow="3615" windowWidth="26625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
